--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -97,12 +97,12 @@
     <t>better</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>confidence</t>
   </si>
   <si>
     <t>help</t>
@@ -1186,25 +1186,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6623376623376623</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="M16">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1212,25 +1212,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1368,25 +1368,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5501519756838906</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L23">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1394,25 +1394,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5428571428571428</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="10:17">
